--- a/FILE IMPORT/file_import_keluhan.xlsx
+++ b/FILE IMPORT/file_import_keluhan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\`\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\helpdesk\FILE IMPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3E350-3AAB-4F53-AB31-80AF556EC5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D4D5A4-17DC-4381-B163-3C7C1ED71E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61AF0FB2-DDCA-4070-A92F-CF0B3856F1FB}"/>
   </bookViews>
@@ -45,22 +45,22 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t>Devi Candra Putri</t>
-  </si>
-  <si>
-    <t>P230100002</t>
-  </si>
-  <si>
-    <t>Router Mati-Mati</t>
-  </si>
-  <si>
-    <t>Kabel Putus</t>
-  </si>
-  <si>
     <t>PEGAWAI LOGIN</t>
   </si>
   <si>
     <t>Ni Putu Natalia Sari</t>
+  </si>
+  <si>
+    <t>Wifi Lambat</t>
+  </si>
+  <si>
+    <t>Ida Bagus Adi Wedana Manuaba</t>
+  </si>
+  <si>
+    <t>P221200001</t>
+  </si>
+  <si>
+    <t>Internet Lambat</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF757575"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -113,11 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,13 +442,13 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -465,24 +472,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
